--- a/test.xlsx
+++ b/test.xlsx
@@ -181,8 +181,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="n">
-        <v>0.0</v>
+      <c r="D1" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -196,19 +196,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.060641246193116304</v>
+        <v>-1.1031616240896664</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6063808631590728</v>
+        <v>3.3401120813091167</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9055932715356854</v>
+        <v>2.012623738517805</v>
       </c>
     </row>
     <row r="3">
@@ -216,19 +216,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5847598009570296</v>
+        <v>0.9063055157800988</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.20037204369327238</v>
+        <v>1.9998004111516134</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>2.8544614794806513</v>
+        <v>3.061492848067731</v>
       </c>
     </row>
     <row r="4">
@@ -236,19 +236,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1.9849040773697197</v>
+        <v>4.3670364614701445</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9772454576477301</v>
+        <v>10.142335160280286</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>16.025876639890342</v>
+        <v>17.30116104178245</v>
       </c>
     </row>
     <row r="5">
@@ -276,19 +276,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>9.642938390395557</v>
+        <v>-0.8215527951563633</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.330439259988171</v>
+        <v>0.5987225465702982</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>1.4979384751816893</v>
+        <v>1.521145154693626</v>
       </c>
     </row>
     <row r="7">
@@ -296,19 +296,19 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.03536528244006951</v>
+        <v>-1.251959893582118</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5734835533257969</v>
+        <v>3.0117825772637583</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>1.436944542068348</v>
+        <v>1.509984363688572</v>
       </c>
     </row>
     <row r="8">
@@ -316,19 +316,19 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>0.15664777482630213</v>
+        <v>-0.9543633545972151</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6392781729923487</v>
+        <v>3.668441585354475</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>2.3742420010030227</v>
+        <v>2.5152631133470384</v>
       </c>
     </row>
     <row r="9">
@@ -336,19 +336,19 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3419440248153049</v>
+        <v>0.8213896879334308</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04014895589381866</v>
+        <v>3.9992016844421623</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>8.14795033783887</v>
+        <v>9.372738458769868</v>
       </c>
     </row>
     <row r="10">
@@ -356,19 +356,19 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9869154384359717</v>
+        <v>1.5697745019048557</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9772454576477301</v>
+        <v>9.204857731758798</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>9.158010593701611</v>
+        <v>10.685801871468678</v>
       </c>
     </row>
     <row r="11">
@@ -376,19 +376,19 @@
         <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.997988638933748</v>
+        <v>-2.7972619595652883</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>-0.9374774285214871</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.86786604618873</v>
+        <v>-6.615359170313772</v>
       </c>
     </row>
   </sheetData>
@@ -414,13 +414,13 @@
         <v>33</v>
       </c>
       <c r="B2" t="n">
-        <v>0.34194402481530484</v>
+        <v>0.8213896879334313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001965314364265813</v>
+        <v>0.27098890407174825</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.21702732045366332</v>
+        <v>-0.3627398786811788</v>
       </c>
     </row>
     <row r="3">
@@ -428,13 +428,13 @@
         <v>34</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001965314364265813</v>
+        <v>0.27098890407174825</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04014895589381867</v>
+        <v>3.999201684442161</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06109883315254396</v>
+        <v>-0.9823075839131425</v>
       </c>
     </row>
     <row r="4">
@@ -442,13 +442,13 @@
         <v>35</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.21702732045366332</v>
+        <v>-0.3627398786811788</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06109883315254396</v>
+        <v>-0.9823075839131425</v>
       </c>
       <c r="D4" t="n">
-        <v>8.147950337838866</v>
+        <v>9.37273845876987</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -181,8 +181,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="e">
-        <v>#NUM!</v>
+      <c r="D1" t="n">
+        <v>0.0</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -196,19 +196,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.1031616240896664</v>
+        <v>-0.096919581188018</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3.3401120813091167</v>
+        <v>0.6325305009819189</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>2.012623738517805</v>
+        <v>1.96222562741761</v>
       </c>
     </row>
     <row r="3">
@@ -216,19 +216,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9063055157800988</v>
+        <v>0.5966457393870502</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.9998004111516134</v>
+        <v>0.21077081214713475</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>3.061492848067731</v>
+        <v>2.894586039856762</v>
       </c>
     </row>
     <row r="4">
@@ -236,19 +236,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>4.3670364614701445</v>
+        <v>1.9804216655902565</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>10.142335160280286</v>
+        <v>0.9662961962314939</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>17.30116104178245</v>
+        <v>16.861218413676205</v>
       </c>
     </row>
     <row r="5">
@@ -276,19 +276,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.8215527951563633</v>
+        <v>-6.156090772096863</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5987225465702982</v>
+        <v>0.3332184168509523</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>1.521145154693626</v>
+        <v>1.475154538505435</v>
       </c>
     </row>
     <row r="7">
@@ -296,19 +296,19 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.251959893582118</v>
+        <v>-0.19487755669964257</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>3.0117825772637583</v>
+        <v>0.5979259095268871</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>1.509984363688572</v>
+        <v>1.4869892020307882</v>
       </c>
     </row>
     <row r="8">
@@ -316,19 +316,19 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9543633545972151</v>
+        <v>0.0010383943236065701</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>3.668441585354475</v>
+        <v>0.6671350924369507</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>2.5152631133470384</v>
+        <v>2.437462052804432</v>
       </c>
     </row>
     <row r="9">
@@ -336,19 +336,19 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8213896879334308</v>
+        <v>0.35598613832871984</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>3.9992016844421623</v>
+        <v>0.04442433525316277</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>9.372738458769868</v>
+        <v>8.378628342133654</v>
       </c>
     </row>
     <row r="10">
@@ -356,19 +356,19 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>1.5697745019048557</v>
+        <v>0.9896778012625873</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>9.204857731758798</v>
+        <v>0.9662961962314939</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>10.685801871468678</v>
+        <v>10.880631609149617</v>
       </c>
     </row>
     <row r="11">
@@ -376,19 +376,19 @@
         <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.7972619595652883</v>
+        <v>-0.9907438643276691</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.9374774285214871</v>
+        <v>0.0</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.615359170313772</v>
+        <v>-5.980586804526586</v>
       </c>
     </row>
   </sheetData>
@@ -403,8 +403,19 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.52734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.52734375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
       <c r="D1" t="s">
         <v>35</v>
       </c>
@@ -414,13 +425,13 @@
         <v>33</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8213896879334313</v>
+        <v>0.3559861383287198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.27098890407174825</v>
+        <v>-1.594936139557258E-4</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3627398786811788</v>
+        <v>-0.1390609513859191</v>
       </c>
     </row>
     <row r="3">
@@ -428,13 +439,13 @@
         <v>34</v>
       </c>
       <c r="B3" t="n">
-        <v>0.27098890407174825</v>
+        <v>-1.594936139557258E-4</v>
       </c>
       <c r="C3" t="n">
-        <v>3.999201684442161</v>
+        <v>0.04442433525316274</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9823075839131425</v>
+        <v>0.034283718064643795</v>
       </c>
     </row>
     <row r="4">
@@ -442,13 +453,13 @@
         <v>35</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3627398786811788</v>
+        <v>-0.1390609513859191</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9823075839131425</v>
+        <v>0.034283718064643795</v>
       </c>
       <c r="D4" t="n">
-        <v>9.37273845876987</v>
+        <v>8.378628342133657</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -196,19 +196,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.096919581188018</v>
+        <v>0.08490679277992337</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6325305009819189</v>
+        <v>0.5922698290964321</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>1.96222562741761</v>
+        <v>2.215613189253447</v>
       </c>
     </row>
     <row r="3">
@@ -216,19 +216,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5966457393870502</v>
+        <v>0.5591269234777217</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21077081214713475</v>
+        <v>0.21615211503515885</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>2.894586039856762</v>
+        <v>3.0118797604002077</v>
       </c>
     </row>
     <row r="4">
@@ -236,19 +236,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1.9804216655902565</v>
+        <v>1.9783054874278605</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9662961962314939</v>
+        <v>0.9917113389539829</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>16.861218413676205</v>
+        <v>14.539280728964417</v>
       </c>
     </row>
     <row r="5">
@@ -276,19 +276,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.156090772096863</v>
+        <v>6.585184826459845</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3332184168509523</v>
+        <v>0.36495547200998046</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>1.475154538505435</v>
+        <v>1.3593888026163374</v>
       </c>
     </row>
     <row r="7">
@@ -296,19 +296,19 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.19487755669964257</v>
+        <v>-0.006891300899901226</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5979259095268871</v>
+        <v>0.5567817292180145</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>1.4869892020307882</v>
+        <v>1.721119347537019</v>
       </c>
     </row>
     <row r="8">
@@ -316,19 +316,19 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0010383943236065701</v>
+        <v>0.17670488645974797</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6671350924369507</v>
+        <v>0.6277579289748497</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>2.437462052804432</v>
+        <v>2.710107030969875</v>
       </c>
     </row>
     <row r="9">
@@ -336,19 +336,19 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>0.35598613832871984</v>
+        <v>0.31262291655766217</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04442433525316277</v>
+        <v>0.04672173683417254</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>8.378628342133654</v>
+        <v>9.071419691108412</v>
       </c>
     </row>
     <row r="10">
@@ -356,19 +356,19 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9896778012625873</v>
+        <v>0.9832735722884536</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9662961962314939</v>
+        <v>0.9917113389539829</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>10.880631609149617</v>
+        <v>10.625527530777841</v>
       </c>
     </row>
     <row r="11">
@@ -376,7 +376,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9907438643276691</v>
+        <v>-0.9950319151394069</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -388,7 +388,7 @@
         <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.980586804526586</v>
+        <v>-3.9137531981865763</v>
       </c>
     </row>
   </sheetData>
@@ -405,8 +405,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.52734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.52734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.8515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.8515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -425,13 +425,13 @@
         <v>33</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3559861383287198</v>
+        <v>0.3126229165576621</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.594936139557258E-4</v>
+        <v>0.01075688343149776</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1390609513859191</v>
+        <v>0.29368714006793756</v>
       </c>
     </row>
     <row r="3">
@@ -439,13 +439,13 @@
         <v>34</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.594936139557258E-4</v>
+        <v>0.01075688343149776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04442433525316274</v>
+        <v>0.04672173683417253</v>
       </c>
       <c r="D3" t="n">
-        <v>0.034283718064643795</v>
+        <v>0.025437906091337652</v>
       </c>
     </row>
     <row r="4">
@@ -453,13 +453,13 @@
         <v>35</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1390609513859191</v>
+        <v>0.29368714006793756</v>
       </c>
       <c r="C4" t="n">
-        <v>0.034283718064643795</v>
+        <v>0.025437906091337652</v>
       </c>
       <c r="D4" t="n">
-        <v>8.378628342133657</v>
+        <v>9.07141969110841</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="228">
   <si>
     <t xml:space="preserve">Среднее геометрическое для 1-й выборки: </t>
   </si>
@@ -24,6 +24,54 @@
     <t xml:space="preserve">Среднее геометрическое для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Среднее геометрическое для 4-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 5-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 6-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 7-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 8-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 9-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 10-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 11-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 12-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 13-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 14-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 15-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 16-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 17-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 18-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее геометрическое для 19-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Среднее арифметическое для 1-й выборки: </t>
   </si>
   <si>
@@ -33,6 +81,54 @@
     <t xml:space="preserve">Среднее арифметическое для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Среднее арифметическое для 4-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 5-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 6-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 7-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 8-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 9-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 10-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 11-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 12-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 13-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 14-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 15-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 16-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 17-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 18-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее арифметическое для 19-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Оценка стандартного отклонения для 1-й выборки: </t>
   </si>
   <si>
@@ -42,6 +138,54 @@
     <t xml:space="preserve">Оценка стандартного отклонения для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 4-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 5-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 6-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 7-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 8-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 9-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 10-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 11-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 12-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 13-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 14-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 15-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 16-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 17-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 18-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка стандартного отклонения для 19-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Размах для 1-й выборки: </t>
   </si>
   <si>
@@ -51,6 +195,54 @@
     <t xml:space="preserve">Размах для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Размах для 4-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 5-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 6-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 7-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 8-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 9-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 10-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 11-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 12-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 13-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 14-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 15-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 16-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 17-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 18-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размах для 19-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 1-й выборки: </t>
   </si>
   <si>
@@ -60,6 +252,54 @@
     <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 4-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 5-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 6-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 7-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 8-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 9-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 10-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 11-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 12-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 13-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 14-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 15-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 16-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 17-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 18-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент ковариации с последующей выборкой для 19-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Количество элементов для 1-й выборки: </t>
   </si>
   <si>
@@ -69,6 +309,54 @@
     <t xml:space="preserve">Количество элементов для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Количество элементов для 4-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 5-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 6-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 7-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 8-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 9-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 10-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 11-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 12-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 13-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 14-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 15-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 16-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 17-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 18-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество элементов для 19-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Нижняя граница доверительного интервала для 1-й выборки: </t>
   </si>
   <si>
@@ -78,6 +366,54 @@
     <t xml:space="preserve">Нижняя граница доверительного интервала для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 4-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 5-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 6-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 7-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 8-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 9-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 10-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 11-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 12-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 13-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 14-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 15-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 16-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 17-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 18-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижняя граница доверительного интервала для 19-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Верхняя граница доверительного интервала для 1-й выборки: </t>
   </si>
   <si>
@@ -87,6 +423,54 @@
     <t xml:space="preserve">Верхняя граница доверительного интервала для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 4-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 5-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 6-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 7-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 8-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 9-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 10-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 11-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 12-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 13-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 14-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 15-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 16-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 17-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 18-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница доверительного интервала для 19-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Оценка дисперсии для 1-й выборки: </t>
   </si>
   <si>
@@ -96,6 +480,54 @@
     <t xml:space="preserve">Оценка дисперсии для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Оценка дисперсии для 4-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 5-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 6-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 7-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 8-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 9-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 10-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 11-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 12-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 13-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 14-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 15-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 16-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 17-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 18-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка дисперсии для 19-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Максимум для 1-й выборки: </t>
   </si>
   <si>
@@ -105,6 +537,54 @@
     <t xml:space="preserve">Максимум для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Максимум для 4-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 5-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 6-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 7-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 8-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 9-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 10-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 11-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 12-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 13-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 14-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 15-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 16-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 17-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 18-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум для 19-й выборки: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Минимум для 1-й выборки: </t>
   </si>
   <si>
@@ -114,6 +594,54 @@
     <t xml:space="preserve">Минимум для 3-й выборки: </t>
   </si>
   <si>
+    <t xml:space="preserve">Минимум для 4-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 5-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 6-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 7-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 8-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 9-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 10-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 11-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 12-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 13-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 14-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 15-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 16-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 17-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 18-й выборки: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимум для 19-й выборки: </t>
+  </si>
+  <si>
     <t>Выборка 1</t>
   </si>
   <si>
@@ -121,6 +649,54 @@
   </si>
   <si>
     <t>Выборка 3</t>
+  </si>
+  <si>
+    <t>Выборка 4</t>
+  </si>
+  <si>
+    <t>Выборка 5</t>
+  </si>
+  <si>
+    <t>Выборка 6</t>
+  </si>
+  <si>
+    <t>Выборка 7</t>
+  </si>
+  <si>
+    <t>Выборка 8</t>
+  </si>
+  <si>
+    <t>Выборка 9</t>
+  </si>
+  <si>
+    <t>Выборка 10</t>
+  </si>
+  <si>
+    <t>Выборка 11</t>
+  </si>
+  <si>
+    <t>Выборка 12</t>
+  </si>
+  <si>
+    <t>Выборка 13</t>
+  </si>
+  <si>
+    <t>Выборка 14</t>
+  </si>
+  <si>
+    <t>Выборка 15</t>
+  </si>
+  <si>
+    <t>Выборка 16</t>
+  </si>
+  <si>
+    <t>Выборка 17</t>
+  </si>
+  <si>
+    <t>Выборка 18</t>
+  </si>
+  <si>
+    <t>Выборка 19</t>
   </si>
 </sst>
 </file>
@@ -165,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -175,8 +751,8 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="e" s="0">
-        <v>#NUM!</v>
+      <c r="B1" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="C1" t="s" s="0">
         <v>1</v>
@@ -187,208 +763,1264 @@
       <c r="E1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="F1" t="e" s="0">
+      <c r="F1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="L1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="P1" t="e" s="0">
         <v>#NUM!</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="R1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="T1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="V1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="X1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AE1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="AF1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AG1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="AH1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AI1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="AJ1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AK1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="AL1" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.08490679277992337</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.5922698290964321</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>2.215613189253447</v>
+        <v>456.90838143642725</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>41.23762706215632</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>4.938343609398436</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L2" t="n" s="0">
+        <v>15.10181636393934</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="N2" t="n" s="0">
+        <v>47.800866522246295</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P2" t="n" s="0">
+        <v>0.55620860312226</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="R2" t="n" s="0">
+        <v>201.0195550741543</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="T2" t="n" s="0">
+        <v>0.47195965324970984</v>
+      </c>
+      <c r="U2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="V2" t="n" s="0">
+        <v>12.762679553407764</v>
+      </c>
+      <c r="W2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="X2" t="n" s="0">
+        <v>3.6740522665678412</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="Z2" t="n" s="0">
+        <v>43.35386825819448</v>
+      </c>
+      <c r="AA2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="n" s="0">
+        <v>45.57788529641439</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AD2" t="n" s="0">
+        <v>45.38114732243826</v>
+      </c>
+      <c r="AE2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="AF2" t="n" s="0">
+        <v>52.67944540614507</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="AH2" t="n" s="0">
+        <v>45.93567625725788</v>
+      </c>
+      <c r="AI2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AL2" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.5591269234777217</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.21615211503515885</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>3.0118797604002077</v>
+        <v>302.73736241488376</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>16.422459944688352</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>3.012894155002153</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="L3" t="n" s="0">
+        <v>6.209385237976896</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="N3" t="n" s="0">
+        <v>15.553204575981836</v>
+      </c>
+      <c r="O3" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="P3" t="n" s="0">
+        <v>0.2891029210340613</v>
+      </c>
+      <c r="Q3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="R3" t="n" s="0">
+        <v>118.86164434452905</v>
+      </c>
+      <c r="S3" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="T3" t="n" s="0">
+        <v>0.25824979833271383</v>
+      </c>
+      <c r="U3" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="V3" t="n" s="0">
+        <v>11.28420378311194</v>
+      </c>
+      <c r="W3" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="X3" t="n" s="0">
+        <v>2.285771096612777</v>
+      </c>
+      <c r="Y3" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="Z3" t="n" s="0">
+        <v>17.023514100532445</v>
+      </c>
+      <c r="AA3" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="n" s="0">
+        <v>15.11903624131265</v>
+      </c>
+      <c r="AC3" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="AD3" t="n" s="0">
+        <v>30.86929519774011</v>
+      </c>
+      <c r="AE3" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="AF3" t="n" s="0">
+        <v>24.177481876053083</v>
+      </c>
+      <c r="AG3" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="AH3" t="n" s="0">
+        <v>17.30521585360404</v>
+      </c>
+      <c r="AI3" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="AJ3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AK3" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>1.9783054874278605</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>0.9917113389539829</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>14.539280728964417</v>
+        <v>1538.703</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="N4" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="P4" t="n" s="0">
+        <v>1.0755484021830661</v>
+      </c>
+      <c r="Q4" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="R4" t="n" s="0">
+        <v>400.0</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="T4" t="n" s="0">
+        <v>0.95</v>
+      </c>
+      <c r="U4" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="V4" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="W4" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="X4" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="Y4" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="Z4" t="n" s="0">
+        <v>100.01177553744598</v>
+      </c>
+      <c r="AA4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="n" s="0">
+        <v>98.44435164304574</v>
+      </c>
+      <c r="AC4" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="n" s="0">
+        <v>100.0050618308549</v>
+      </c>
+      <c r="AE4" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="AF4" t="n" s="0">
+        <v>97.0416565635124</v>
+      </c>
+      <c r="AG4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="AH4" t="n" s="0">
+        <v>96.41672164066398</v>
+      </c>
+      <c r="AI4" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="AJ4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AK4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="AL4" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>6.585184826459845</v>
+        <v>76</v>
+      </c>
+      <c r="B5" t="e" s="0">
+        <v>#NUM!</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>0.36495547200998046</v>
+        <v>77</v>
+      </c>
+      <c r="D5" t="e" s="0">
+        <v>#NUM!</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>1.3593888026163374</v>
+        <v>0.6625778267913119</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>0.3982396930826121</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>0.6101021705472552</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="L5" t="n" s="0">
+        <v>0.41116810642750823</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="N5" t="n" s="0">
+        <v>0.3253749504466294</v>
+      </c>
+      <c r="O5" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="P5" t="n" s="0">
+        <v>0.5197742706804442</v>
+      </c>
+      <c r="Q5" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="R5" t="n" s="0">
+        <v>0.5912939380483757</v>
+      </c>
+      <c r="S5" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="T5" t="n" s="0">
+        <v>0.5471861769422821</v>
+      </c>
+      <c r="U5" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="V5" t="n" s="0">
+        <v>0.8841563196733982</v>
+      </c>
+      <c r="W5" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="X5" t="n" s="0">
+        <v>0.6221389710245077</v>
+      </c>
+      <c r="Y5" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="Z5" t="n" s="0">
+        <v>0.3926642485313814</v>
+      </c>
+      <c r="AA5" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="AB5" t="n" s="0">
+        <v>0.3317186864416034</v>
+      </c>
+      <c r="AC5" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="AD5" t="n" s="0">
+        <v>0.6802228903207367</v>
+      </c>
+      <c r="AE5" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="AF5" t="n" s="0">
+        <v>0.4589547534081058</v>
+      </c>
+      <c r="AG5" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="AH5" t="n" s="0">
+        <v>0.3767271381113019</v>
+      </c>
+      <c r="AI5" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="AJ5" t="e" s="0">
+        <v>#NUM!</v>
+      </c>
+      <c r="AK5" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="AL5" t="e" s="0">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>101.0</v>
+        <v>6001.0</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>101.0</v>
+        <v>6001.0</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>101.0</v>
+        <v>6001.0</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="L6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="N6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="O6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="P6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="Q6" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="R6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="S6" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="T6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="U6" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="V6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="W6" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="X6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="Y6" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="Z6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="AA6" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="AB6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="AC6" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="AD6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="AE6" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="AF6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="AG6" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="AH6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="AI6" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="AJ6" t="n" s="0">
+        <v>6001.0</v>
+      </c>
+      <c r="AK6" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="AL6" t="n" s="0">
+        <v>6001.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>-0.006891300899901226</v>
+        <v>0.0</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>0.5567817292180145</v>
+        <v>0.0</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>1.721119347537019</v>
+        <v>450.46018656762016</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>40.88783468402426</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>4.874170068096589</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="L7" t="n" s="0">
+        <v>14.96955873405652</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="N7" t="n" s="0">
+        <v>47.46958896489309</v>
+      </c>
+      <c r="O7" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="P7" t="n" s="0">
+        <v>0.5500508168579593</v>
+      </c>
+      <c r="Q7" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="R7" t="n" s="0">
+        <v>198.4878456113824</v>
+      </c>
+      <c r="S7" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="T7" t="n" s="0">
+        <v>0.46645902719154475</v>
+      </c>
+      <c r="U7" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="V7" t="n" s="0">
+        <v>12.522330148390754</v>
+      </c>
+      <c r="W7" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="X7" t="n" s="0">
+        <v>3.6253661799253636</v>
+      </c>
+      <c r="Y7" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="Z7" t="n" s="0">
+        <v>42.9912736468241</v>
+      </c>
+      <c r="AA7" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="AB7" t="n" s="0">
+        <v>45.255855365470694</v>
+      </c>
+      <c r="AC7" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="AD7" t="n" s="0">
+        <v>44.723642648056604</v>
+      </c>
+      <c r="AE7" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="AF7" t="n" s="0">
+        <v>52.164473903023534</v>
+      </c>
+      <c r="AG7" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="AH7" t="n" s="0">
+        <v>45.56708150178834</v>
+      </c>
+      <c r="AI7" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="AJ7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AK7" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="AL7" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>0.17670488645974797</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>0.6277579289748497</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>2.710107030969875</v>
+        <v>463.35657630523434</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>41.58741944028838</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>5.0025171507002835</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="L8" t="n" s="0">
+        <v>15.234073993822161</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="N8" t="n" s="0">
+        <v>48.1321440795995</v>
+      </c>
+      <c r="O8" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="P8" t="n" s="0">
+        <v>0.5623663893865606</v>
+      </c>
+      <c r="Q8" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="R8" t="n" s="0">
+        <v>203.55126453692623</v>
+      </c>
+      <c r="S8" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="T8" t="n" s="0">
+        <v>0.47746027930787494</v>
+      </c>
+      <c r="U8" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="V8" t="n" s="0">
+        <v>13.003028958424775</v>
+      </c>
+      <c r="W8" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="X8" t="n" s="0">
+        <v>3.722738353210319</v>
+      </c>
+      <c r="Y8" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="Z8" t="n" s="0">
+        <v>43.716462869564864</v>
+      </c>
+      <c r="AA8" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="AB8" t="n" s="0">
+        <v>45.89991522735808</v>
+      </c>
+      <c r="AC8" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="AD8" t="n" s="0">
+        <v>46.038651996819915</v>
+      </c>
+      <c r="AE8" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="AF8" t="n" s="0">
+        <v>53.19441690926661</v>
+      </c>
+      <c r="AG8" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="AH8" t="n" s="0">
+        <v>46.304271012727426</v>
+      </c>
+      <c r="AI8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="AJ8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AK8" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="AL8" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>0.31262291655766217</v>
+        <v>0.0</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>0.04672173683417254</v>
+        <v>0.0</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>9.071419691108412</v>
+        <v>91649.91060192068</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>269.6971906348934</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>9.07753118924614</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="L9" t="n" s="0">
+        <v>38.5564650336054</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="N9" t="n" s="0">
+        <v>241.90217258234233</v>
+      </c>
+      <c r="O9" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="P9" t="n" s="0">
+        <v>0.0835804989504267</v>
+      </c>
+      <c r="Q9" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="R9" t="n" s="0">
+        <v>14128.090496285316</v>
+      </c>
+      <c r="S9" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="T9" t="n" s="0">
+        <v>0.06669295833888736</v>
+      </c>
+      <c r="U9" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="V9" t="n" s="0">
+        <v>127.33325501879781</v>
+      </c>
+      <c r="W9" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="X9" t="n" s="0">
+        <v>5.224749506110377</v>
+      </c>
+      <c r="Y9" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="Z9" t="n" s="0">
+        <v>289.80003233102696</v>
+      </c>
+      <c r="AA9" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="AB9" t="n" s="0">
+        <v>228.58525686612535</v>
+      </c>
+      <c r="AC9" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="AD9" t="n" s="0">
+        <v>952.9133860052208</v>
+      </c>
+      <c r="AE9" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="AF9" t="n" s="0">
+        <v>584.5506298668753</v>
+      </c>
+      <c r="AG9" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="AH9" t="n" s="0">
+        <v>299.47049573982855</v>
+      </c>
+      <c r="AI9" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="AJ9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AK9" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="AL9" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>0.9832735722884536</v>
+        <v>0.0</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>0.9917113389539829</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>10.625527530777841</v>
+        <v>1538.703</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="L10" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="N10" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="O10" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="P10" t="n" s="0">
+        <v>1.0682772825126</v>
+      </c>
+      <c r="Q10" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="R10" t="n" s="0">
+        <v>400.0</v>
+      </c>
+      <c r="S10" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="T10" t="n" s="0">
+        <v>0.95</v>
+      </c>
+      <c r="U10" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="V10" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="W10" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="X10" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="Y10" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="Z10" t="n" s="0">
+        <v>100.01177553744598</v>
+      </c>
+      <c r="AA10" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="AB10" t="n" s="0">
+        <v>98.44435164304574</v>
+      </c>
+      <c r="AC10" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="AD10" t="n" s="0">
+        <v>100.0050618308549</v>
+      </c>
+      <c r="AE10" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="AF10" t="n" s="0">
+        <v>97.0416565635124</v>
+      </c>
+      <c r="AG10" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="AH10" t="n" s="0">
+        <v>96.41672164066398</v>
+      </c>
+      <c r="AI10" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="AJ10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AK10" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="AL10" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>-0.9950319151394069</v>
+        <v>0.0</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="D11" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>-3.9137531981865763</v>
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="L11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="N11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="P11" t="n" s="0">
+        <v>-0.00727111967046627</v>
+      </c>
+      <c r="Q11" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="R11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S11" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="T11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="U11" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="V11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="W11" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="X11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Y11" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="Z11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AA11" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="AB11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AC11" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="AD11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="AF11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AG11" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="AH11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AI11" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="AJ11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AK11" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="AL11" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -398,68 +2030,1268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.75390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.02734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.02734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.02734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.02734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.02734375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.02734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.02734375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="12.421875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="13.02734375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="12.02734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="12.02734375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="12.421875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="13.02734375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="12.421875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="10.75390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s" s="0">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>35</v>
+        <v>211</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>227</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.3126229165576621</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.01075688343149776</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.29368714006793756</v>
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.01075688343149776</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.04672173683417253</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.025437906091337652</v>
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.29368714006793756</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.025437906091337652</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>9.07141969110841</v>
+        <v>91649.9106019205</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>-2664.1180561547308</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>5.151372521913015</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>799.8047481570586</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>-2534.9516680305724</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>-0.6373580831063247</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>771.4170588864034</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>0.8230102568716685</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>-130.2507181072499</v>
+      </c>
+      <c r="M4" t="n" s="0">
+        <v>13.86815748698809</v>
+      </c>
+      <c r="N4" t="n" s="0">
+        <v>4348.934038034919</v>
+      </c>
+      <c r="O4" t="n" s="0">
+        <v>-2693.033084298999</v>
+      </c>
+      <c r="P4" t="n" s="0">
+        <v>-252.29661274075005</v>
+      </c>
+      <c r="Q4" t="n" s="0">
+        <v>4237.955557307329</v>
+      </c>
+      <c r="R4" t="n" s="0">
+        <v>3839.2439044033645</v>
+      </c>
+      <c r="S4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>-2664.1180561547308</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>269.69719063489384</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>-0.3963463311670285</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>-74.4148650224962</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>214.51149405654573</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>-0.06326386578499008</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>22.167130744042556</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>0.0785989492883222</v>
+      </c>
+      <c r="L5" t="n" s="0">
+        <v>0.04284649280676127</v>
+      </c>
+      <c r="M5" t="n" s="0">
+        <v>0.29726769508982415</v>
+      </c>
+      <c r="N5" t="n" s="0">
+        <v>-156.04390886408882</v>
+      </c>
+      <c r="O5" t="n" s="0">
+        <v>174.86356955710087</v>
+      </c>
+      <c r="P5" t="n" s="0">
+        <v>-3.4627745834949337</v>
+      </c>
+      <c r="Q5" t="n" s="0">
+        <v>-327.66098527393535</v>
+      </c>
+      <c r="R5" t="n" s="0">
+        <v>-207.92137078221805</v>
+      </c>
+      <c r="S5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>5.151372521913015</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>-0.3963463311670285</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>9.077531189246223</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>0.15477867577625914</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>-0.5072798977948119</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>0.00773025069019563</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>-2.9725157704271443</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>-0.0030127580178693192</v>
+      </c>
+      <c r="L6" t="n" s="0">
+        <v>0.14821690579347932</v>
+      </c>
+      <c r="M6" t="n" s="0">
+        <v>-0.04044464553724782</v>
+      </c>
+      <c r="N6" t="n" s="0">
+        <v>-11.326457617591455</v>
+      </c>
+      <c r="O6" t="n" s="0">
+        <v>24.88825293486516</v>
+      </c>
+      <c r="P6" t="n" s="0">
+        <v>0.6976545651699964</v>
+      </c>
+      <c r="Q6" t="n" s="0">
+        <v>0.7126200764563428</v>
+      </c>
+      <c r="R6" t="n" s="0">
+        <v>0.13644123737483785</v>
+      </c>
+      <c r="S6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>799.8047481570586</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>-74.4148650224962</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>0.15477867577625914</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>38.55646503360556</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>-81.95888824084867</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>0.019963301808642288</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>-6.377108025051356</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>-0.024392141076170958</v>
+      </c>
+      <c r="L7" t="n" s="0">
+        <v>0.18530213214464364</v>
+      </c>
+      <c r="M7" t="n" s="0">
+        <v>-0.08828050021610642</v>
+      </c>
+      <c r="N7" t="n" s="0">
+        <v>56.56934833955944</v>
+      </c>
+      <c r="O7" t="n" s="0">
+        <v>-48.87590871654527</v>
+      </c>
+      <c r="P7" t="n" s="0">
+        <v>1.4337704148419819</v>
+      </c>
+      <c r="Q7" t="n" s="0">
+        <v>139.7914436629604</v>
+      </c>
+      <c r="R7" t="n" s="0">
+        <v>59.216744329685646</v>
+      </c>
+      <c r="S7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>-2534.9516680305724</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>214.51149405654573</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>-0.5072798977948119</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>-81.95888824084867</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>241.90217258234762</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>-0.08327098240982785</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>29.534186385602435</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>0.08101862956460693</v>
+      </c>
+      <c r="L8" t="n" s="0">
+        <v>-1.298194655612947</v>
+      </c>
+      <c r="M8" t="n" s="0">
+        <v>0.46351381687616094</v>
+      </c>
+      <c r="N8" t="n" s="0">
+        <v>-154.04373687450519</v>
+      </c>
+      <c r="O8" t="n" s="0">
+        <v>143.69051460707678</v>
+      </c>
+      <c r="P8" t="n" s="0">
+        <v>-6.299358771096168</v>
+      </c>
+      <c r="Q8" t="n" s="0">
+        <v>-362.6690649761709</v>
+      </c>
+      <c r="R8" t="n" s="0">
+        <v>-175.15079180885638</v>
+      </c>
+      <c r="S8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>-0.6373580831063247</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>-0.06326386578499008</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>0.00773025069019563</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>0.019963301808642288</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>-0.08327098240982785</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>0.08358049895042663</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>-33.11221922625202</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>-0.07129895179563164</v>
+      </c>
+      <c r="L9" t="n" s="0">
+        <v>2.6913512897842278</v>
+      </c>
+      <c r="M9" t="n" s="0">
+        <v>-0.628815440496972</v>
+      </c>
+      <c r="N9" t="n" s="0">
+        <v>-2.136200986060954</v>
+      </c>
+      <c r="O9" t="n" s="0">
+        <v>1.330719724379858</v>
+      </c>
+      <c r="P9" t="n" s="0">
+        <v>8.457353106736822</v>
+      </c>
+      <c r="Q9" t="n" s="0">
+        <v>-0.7693752258255883</v>
+      </c>
+      <c r="R9" t="n" s="0">
+        <v>-2.637446656426674</v>
+      </c>
+      <c r="S9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>771.4170588864034</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>22.167130744042556</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>-2.9725157704271443</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>-6.377108025051356</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>29.534186385602435</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>-33.11221922625202</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>14128.090496285333</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>29.63932835269574</v>
+      </c>
+      <c r="L10" t="n" s="0">
+        <v>-1170.5873729409377</v>
+      </c>
+      <c r="M10" t="n" s="0">
+        <v>265.1558136336399</v>
+      </c>
+      <c r="N10" t="n" s="0">
+        <v>933.7425736770224</v>
+      </c>
+      <c r="O10" t="n" s="0">
+        <v>-586.5319479645804</v>
+      </c>
+      <c r="P10" t="n" s="0">
+        <v>-3573.1289852857817</v>
+      </c>
+      <c r="Q10" t="n" s="0">
+        <v>315.5039255594512</v>
+      </c>
+      <c r="R10" t="n" s="0">
+        <v>1137.4877340448027</v>
+      </c>
+      <c r="S10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>0.8230102568716685</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>0.0785989492883222</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>-0.0030127580178693192</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>-0.024392141076170958</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>0.08101862956460693</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>-0.07129895179563164</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>29.63932835269574</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>0.0666929583388878</v>
+      </c>
+      <c r="L11" t="n" s="0">
+        <v>-2.32416375075991</v>
+      </c>
+      <c r="M11" t="n" s="0">
+        <v>0.5607690687301574</v>
+      </c>
+      <c r="N11" t="n" s="0">
+        <v>1.9149949109621027</v>
+      </c>
+      <c r="O11" t="n" s="0">
+        <v>-1.128783299189497</v>
+      </c>
+      <c r="P11" t="n" s="0">
+        <v>-7.357841485762315</v>
+      </c>
+      <c r="Q11" t="n" s="0">
+        <v>0.6437347453315033</v>
+      </c>
+      <c r="R11" t="n" s="0">
+        <v>2.353882208640597</v>
+      </c>
+      <c r="S11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>-130.2507181072499</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.04284649280676127</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.14821690579347932</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.18530213214464364</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>-1.298194655612947</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>2.6913512897842278</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>-1170.5873729409377</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>-2.32416375075991</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>127.33325501879659</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>-23.378854652197713</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>-80.17041156602511</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>65.28612995189081</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>332.7813942652852</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>-26.83183503871962</v>
+      </c>
+      <c r="R12" t="n" s="0">
+        <v>-96.6285741333637</v>
+      </c>
+      <c r="S12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>13.86815748698809</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.29726769508982415</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>-0.04044464553724782</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>-0.08828050021610642</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.46351381687616094</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>-0.628815440496972</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>265.1558136336399</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.5607690687301574</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>-23.378854652197713</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>5.224749506110361</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>17.49988548494437</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>-11.716051849007705</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>-68.59511947556086</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>6.073112825247867</v>
+      </c>
+      <c r="R13" t="n" s="0">
+        <v>21.41412514010135</v>
+      </c>
+      <c r="S13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>4348.934038034919</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>-156.04390886408882</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>-11.326457617591455</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>56.56934833955944</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>-154.04373687450519</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>-2.136200986060954</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>933.7425736770224</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>1.9149949109621027</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>-80.17041156602511</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>17.49988548494437</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>289.8000323310257</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>-211.60191156235211</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>-238.43625503122442</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>282.54203208475815</v>
+      </c>
+      <c r="R14" t="n" s="0">
+        <v>269.3784045001482</v>
+      </c>
+      <c r="S14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>-2693.033084298999</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>174.86356955710087</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>24.88825293486516</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>-48.87590871654527</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>143.69051460707678</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>1.330719724379858</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>-586.5319479645804</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>-1.128783299189497</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>65.28612995189081</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>-11.716051849007705</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>-211.60191156235211</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>228.5852568661266</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>168.4385528872869</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>-238.76928771524342</v>
+      </c>
+      <c r="R15" t="n" s="0">
+        <v>-207.7183452480589</v>
+      </c>
+      <c r="S15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>-252.29661274075005</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>-3.4627745834949337</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.6976545651699964</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>1.4337704148419819</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>-6.299358771096168</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>8.457353106736822</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>-3573.1289852857817</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>-7.357841485762315</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>332.7813942652852</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>-68.59511947556086</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>-238.43625503122442</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>168.4385528872869</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>952.9133860052278</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>-80.97750989968439</v>
+      </c>
+      <c r="R16" t="n" s="0">
+        <v>-289.83562827452</v>
+      </c>
+      <c r="S16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>4237.955557307329</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>-327.66098527393535</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>0.7126200764563428</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>139.7914436629604</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>-362.6690649761709</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>-0.7693752258255883</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>315.5039255594512</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>0.6437347453315033</v>
+      </c>
+      <c r="L17" t="n" s="0">
+        <v>-26.83183503871962</v>
+      </c>
+      <c r="M17" t="n" s="0">
+        <v>6.073112825247867</v>
+      </c>
+      <c r="N17" t="n" s="0">
+        <v>282.54203208475815</v>
+      </c>
+      <c r="O17" t="n" s="0">
+        <v>-238.76928771524342</v>
+      </c>
+      <c r="P17" t="n" s="0">
+        <v>-80.97750989968439</v>
+      </c>
+      <c r="Q17" t="n" s="0">
+        <v>584.5506298668734</v>
+      </c>
+      <c r="R17" t="n" s="0">
+        <v>306.8660943889578</v>
+      </c>
+      <c r="S17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>3839.2439044033645</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>-207.92137078221805</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>0.13644123737483785</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>59.216744329685646</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>-175.15079180885638</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>-2.637446656426674</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>1137.4877340448027</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>2.353882208640597</v>
+      </c>
+      <c r="L18" t="n" s="0">
+        <v>-96.6285741333637</v>
+      </c>
+      <c r="M18" t="n" s="0">
+        <v>21.41412514010135</v>
+      </c>
+      <c r="N18" t="n" s="0">
+        <v>269.3784045001482</v>
+      </c>
+      <c r="O18" t="n" s="0">
+        <v>-207.7183452480589</v>
+      </c>
+      <c r="P18" t="n" s="0">
+        <v>-289.83562827452</v>
+      </c>
+      <c r="Q18" t="n" s="0">
+        <v>306.8660943889578</v>
+      </c>
+      <c r="R18" t="n" s="0">
+        <v>299.4704957398293</v>
+      </c>
+      <c r="S18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="R20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="T20" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -182,7 +182,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>0.5490716333494366</v>
+        <v>0.5422600490906336</v>
       </c>
       <c r="E1" t="s" s="0">
         <v>2</v>
@@ -196,19 +196,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.08575586070772259</v>
+        <v>-0.009232272524386662</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.5981925273873964</v>
+        <v>0.58140214996283</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>2.2377693211459815</v>
+        <v>2.393943096527771</v>
       </c>
     </row>
     <row r="3">
@@ -216,19 +216,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.5618782570667403</v>
+        <v>0.5797904801500203</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.2088419802184494</v>
+        <v>0.19033617097547778</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>3.0187694628076245</v>
+        <v>5.513268674116863</v>
       </c>
     </row>
     <row r="4">
@@ -236,19 +236,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>1.9783054874278605</v>
+        <v>1.9699005587026477</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>0.8995421954413824</v>
+        <v>0.8381708231227046</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>14.539280728964417</v>
+        <v>25.003825447127134</v>
       </c>
     </row>
     <row r="5">
@@ -256,19 +256,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>6.552068306815342</v>
+        <v>-62.80040787558296</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>0.3491216801563302</v>
+        <v>0.32737438447320205</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>14</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>1.3490083335585663</v>
+        <v>2.3030074031890866</v>
       </c>
     </row>
     <row r="6">
@@ -296,19 +296,19 @@
         <v>18</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>-0.006954051708289555</v>
+        <v>-0.10489770174914001</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>0.5637336006513523</v>
+        <v>0.5499966817518762</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>1.7396723597827235</v>
+        <v>1.4842537652984886</v>
       </c>
     </row>
     <row r="8">
@@ -316,19 +316,19 @@
         <v>21</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>0.17846577312373474</v>
+        <v>0.08643315670036669</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>22</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>0.6326514541234405</v>
+        <v>0.6128076181737838</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>2.7358662825092397</v>
+        <v>3.3036324277570532</v>
       </c>
     </row>
     <row r="9">
@@ -336,19 +336,19 @@
         <v>24</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>0.315707175764358</v>
+        <v>0.33615700087259115</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>0.04361497270156321</v>
+        <v>0.036227857981606305</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>26</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>9.112969069579835</v>
+        <v>30.396131472998306</v>
       </c>
     </row>
     <row r="10">
@@ -356,19 +356,19 @@
         <v>27</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>0.9832735722884536</v>
+        <v>0.9718452701345086</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>0.9917113389539829</v>
+        <v>0.9625195225281767</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>29</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>10.625527530777841</v>
+        <v>15.627952314447748</v>
       </c>
     </row>
     <row r="11">
@@ -376,19 +376,19 @@
         <v>30</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>-0.9950319151394069</v>
+        <v>-0.9980552885681391</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>31</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>0.09216914351260054</v>
+        <v>0.12434869940547207</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>32</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>-3.9137531981865763</v>
+        <v>-9.375873132679386</v>
       </c>
     </row>
   </sheetData>
@@ -405,8 +405,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.02734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -425,13 +425,13 @@
         <v>33</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.315707175764358</v>
+        <v>0.33615700087259115</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.010352502365498943</v>
+        <v>-0.012146356693596634</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.29473446657327257</v>
+        <v>-0.05693807882210727</v>
       </c>
     </row>
     <row r="3">
@@ -439,13 +439,13 @@
         <v>34</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.010352502365498943</v>
+        <v>-0.012146356693596634</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.0436149727015632</v>
+        <v>0.03622785798160634</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.01230734702769087</v>
+        <v>-0.010692329512347805</v>
       </c>
     </row>
     <row r="4">
@@ -453,13 +453,13 @@
         <v>35</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.29473446657327257</v>
+        <v>-0.05693807882210727</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.01230734702769087</v>
+        <v>-0.010692329512347805</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>9.112969069579835</v>
+        <v>30.396131472998285</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -182,7 +182,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>0.5422600490906336</v>
+        <v>0.5490716333494366</v>
       </c>
       <c r="E1" t="s" s="0">
         <v>2</v>
@@ -196,19 +196,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>-0.009232272524386662</v>
+        <v>0.08575586070772259</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.58140214996283</v>
+        <v>0.5981925273873964</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>2.393943096527771</v>
+        <v>2.2377693211459815</v>
       </c>
     </row>
     <row r="3">
@@ -216,19 +216,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.5797904801500203</v>
+        <v>0.5618782570667403</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.19033617097547778</v>
+        <v>0.2088419802184494</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>5.513268674116863</v>
+        <v>3.0187694628076245</v>
       </c>
     </row>
     <row r="4">
@@ -236,19 +236,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>1.9699005587026477</v>
+        <v>1.9783054874278605</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>10</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>0.8381708231227046</v>
+        <v>0.8995421954413824</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>25.003825447127134</v>
+        <v>14.539280728964417</v>
       </c>
     </row>
     <row r="5">
@@ -256,19 +256,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>-62.80040787558296</v>
+        <v>6.552068306815342</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>0.32737438447320205</v>
+        <v>0.3491216801563302</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>14</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>2.3030074031890866</v>
+        <v>1.3490083335585663</v>
       </c>
     </row>
     <row r="6">
@@ -296,19 +296,19 @@
         <v>18</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>-0.10489770174914001</v>
+        <v>-0.006954051708289555</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>0.5499966817518762</v>
+        <v>0.5637336006513523</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>1.4842537652984886</v>
+        <v>1.7396723597827235</v>
       </c>
     </row>
     <row r="8">
@@ -316,19 +316,19 @@
         <v>21</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>0.08643315670036669</v>
+        <v>0.17846577312373474</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>22</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>0.6128076181737838</v>
+        <v>0.6326514541234405</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>23</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>3.3036324277570532</v>
+        <v>2.7358662825092397</v>
       </c>
     </row>
     <row r="9">
@@ -336,19 +336,19 @@
         <v>24</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>0.33615700087259115</v>
+        <v>0.315707175764358</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>0.036227857981606305</v>
+        <v>0.04361497270156321</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>26</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>30.396131472998306</v>
+        <v>9.112969069579835</v>
       </c>
     </row>
     <row r="10">
@@ -356,19 +356,19 @@
         <v>27</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>0.9718452701345086</v>
+        <v>0.9832735722884536</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>0.9625195225281767</v>
+        <v>0.9917113389539829</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>29</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>15.627952314447748</v>
+        <v>10.625527530777841</v>
       </c>
     </row>
     <row r="11">
@@ -376,19 +376,19 @@
         <v>30</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>-0.9980552885681391</v>
+        <v>-0.9950319151394069</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>31</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>0.12434869940547207</v>
+        <v>0.09216914351260054</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>32</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>-9.375873132679386</v>
+        <v>-3.9137531981865763</v>
       </c>
     </row>
   </sheetData>
@@ -405,8 +405,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.02734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.02734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -425,13 +425,13 @@
         <v>33</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.33615700087259115</v>
+        <v>0.315707175764358</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>-0.012146356693596634</v>
+        <v>0.010352502365498943</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>-0.05693807882210727</v>
+        <v>0.29473446657327257</v>
       </c>
     </row>
     <row r="3">
@@ -439,13 +439,13 @@
         <v>34</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>-0.012146356693596634</v>
+        <v>0.010352502365498943</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.03622785798160634</v>
+        <v>0.0436149727015632</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>-0.010692329512347805</v>
+        <v>0.01230734702769087</v>
       </c>
     </row>
     <row r="4">
@@ -453,13 +453,13 @@
         <v>35</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>-0.05693807882210727</v>
+        <v>0.29473446657327257</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>-0.010692329512347805</v>
+        <v>0.01230734702769087</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>30.396131472998285</v>
+        <v>9.112969069579835</v>
       </c>
     </row>
   </sheetData>
